--- a/ig/sd-ref-profils/ValueSet-eclaire-study-title-type-vs.xlsx
+++ b/ig/sd-ref-profils/ValueSet-eclaire-study-title-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T12:57:54+00:00</t>
+    <t>2023-12-04T13:15:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
